--- a/REGULAR/CTO/MIRANDA, NICOLE MAY.xlsx
+++ b/REGULAR/CTO/MIRANDA, NICOLE MAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -926,7 +926,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,7 +969,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1033,7 +1033,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1093,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,7 +1159,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1222,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1320,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1379,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1444,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1748,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1814,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1872,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1938,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1994,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2069,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2112,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2178,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2234,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2682,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,7 +2845,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.963999999999999</v>
+        <v>35.963999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3662,11 +3662,15 @@
       <c r="A49" s="40">
         <v>44682</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39">
+        <v>1</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -3676,7 +3680,9 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="49">
+        <v>44691</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">

--- a/REGULAR/CTO/MIRANDA, NICOLE MAY.xlsx
+++ b/REGULAR/CTO/MIRANDA, NICOLE MAY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C43597F-EFB4-46F9-A72A-39C05F44D4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -207,31 +208,19 @@
     <t>2023</t>
   </si>
   <si>
-    <t>FL(4-0-0)</t>
-  </si>
-  <si>
     <t>SP(1-0-0)</t>
   </si>
   <si>
     <t>UT(0-0-10)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-7)</t>
-  </si>
-  <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
-    <t>8/9,26/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -926,7 +915,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,7 +958,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1033,7 +1022,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1082,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,7 +1148,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1211,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1309,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1368,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1433,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1476,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1551,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1737,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1803,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1861,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1927,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1983,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2058,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2101,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2167,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2223,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2302,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2330,25 +2319,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2655,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2665,7 +2654,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2673,34 +2662,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <pane ySplit="3696" topLeftCell="A49"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2721,7 +2710,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2741,7 +2730,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2763,7 +2752,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2771,7 +2760,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2784,7 +2773,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2801,7 +2790,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2845,7 +2834,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35.963999999999999</v>
+        <v>44.463999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2855,12 +2844,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58</v>
+        <v>59.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -2882,7 +2871,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -2902,7 +2891,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -2922,7 +2911,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -2942,7 +2931,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -2962,7 +2951,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -2982,7 +2971,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3002,7 +2991,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>48</v>
       </c>
@@ -3020,7 +3009,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3040,7 +3029,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3060,7 +3049,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3080,7 +3069,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3100,7 +3089,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3120,7 +3109,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3140,7 +3129,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3160,7 +3149,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3180,7 +3169,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3200,7 +3189,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3220,7 +3209,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3240,7 +3229,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3264,7 +3253,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>47</v>
       </c>
@@ -3282,7 +3271,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3302,7 +3291,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3322,7 +3311,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -3342,7 +3331,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -3362,7 +3351,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -3382,7 +3371,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -3402,7 +3391,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44378</v>
       </c>
@@ -3422,7 +3411,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44409</v>
       </c>
@@ -3442,7 +3431,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44440</v>
       </c>
@@ -3462,7 +3451,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44470</v>
       </c>
@@ -3482,7 +3471,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44501</v>
       </c>
@@ -3508,7 +3497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>51</v>
@@ -3530,7 +3519,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44531</v>
       </c>
@@ -3554,7 +3543,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>46</v>
       </c>
@@ -3572,7 +3561,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44562</v>
       </c>
@@ -3598,7 +3587,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44593</v>
       </c>
@@ -3618,7 +3607,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44621</v>
       </c>
@@ -3638,7 +3627,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44652</v>
       </c>
@@ -3658,19 +3647,15 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44682</v>
       </c>
-      <c r="B49" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
-      <c r="D49" s="39">
-        <v>1</v>
-      </c>
+      <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -3680,23 +3665,19 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="49">
-        <v>44691</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44713</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
-      <c r="D50" s="39">
-        <v>1</v>
-      </c>
+      <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
@@ -3706,16 +3687,14 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="49">
-        <v>44739</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="49"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44743</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C51" s="13">
         <v>1.25</v>
@@ -3736,18 +3715,18 @@
         <v>44770</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44774</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
       <c r="D52" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
@@ -3758,92 +3737,88 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40">
-        <v>44805</v>
-      </c>
+      <c r="K52" s="49">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="39">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
       <c r="K53" s="49">
-        <v>44833</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="40">
+        <v>44805</v>
+      </c>
       <c r="B54" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39">
-        <v>1.4999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="49"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
-        <v>44835</v>
-      </c>
+      <c r="K54" s="49">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C55" s="13"/>
       <c r="D55" s="39">
-        <v>2.1000000000000005E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="49"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
       <c r="D56" s="39">
-        <v>1</v>
+        <v>2.1000000000000005E-2</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
@@ -3854,63 +3829,69 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="49">
-        <v>44890</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" s="13">
         <v>1.25</v>
       </c>
-      <c r="D57" s="39"/>
+      <c r="D57" s="39">
+        <v>1</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H57" s="39">
-        <v>1</v>
-      </c>
+      <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
       <c r="K57" s="49">
-        <v>44907</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="40">
+        <v>44896</v>
+      </c>
       <c r="B58" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="39">
-        <v>4</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H58" s="39"/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H58" s="39">
+        <v>1</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="49"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="20"/>
+      <c r="K58" s="49">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
+      <c r="B59" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C59" s="13"/>
-      <c r="D59" s="39"/>
+      <c r="D59" s="39">
+        <v>1</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13" t="str">
@@ -3922,43 +3903,35 @@
       <c r="J59" s="11"/>
       <c r="K59" s="49"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="13">
-        <v>1.25</v>
-      </c>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="49">
-        <v>44943</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="49"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
-      <c r="D61" s="39">
-        <v>1</v>
-      </c>
+      <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
@@ -3969,20 +3942,22 @@
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
       <c r="K61" s="49">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C62" s="13">
         <v>1.25</v>
       </c>
-      <c r="D62" s="39"/>
+      <c r="D62" s="39">
+        <v>1</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
@@ -3993,14 +3968,16 @@
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
       <c r="K62" s="49">
-        <v>45014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B63" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
@@ -4014,15 +3991,15 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="49">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>58</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B64" s="20"/>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
@@ -4036,23 +4013,19 @@
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="49">
-        <v>45076</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="20"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39">
-        <v>1</v>
-      </c>
+      <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -4063,72 +4036,90 @@
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="49">
-        <v>45104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39">
         <v>1</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="49">
-        <v>45118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="39"/>
+        <v>45108</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="39">
+        <v>1</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="49">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H68" s="39"/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="39">
+        <v>1</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="49">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4144,9 +4135,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4162,9 +4153,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4180,9 +4171,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4198,9 +4189,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4216,9 +4207,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4234,9 +4225,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4252,9 +4243,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4270,9 +4261,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4288,9 +4279,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4306,9 +4297,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4324,9 +4315,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4342,9 +4333,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4360,9 +4351,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4378,9 +4369,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4396,9 +4387,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4414,9 +4405,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4432,9 +4423,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4450,9 +4441,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4468,9 +4459,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4486,9 +4477,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4504,9 +4495,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4522,9 +4513,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4540,9 +4531,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4558,9 +4549,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4576,9 +4567,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4594,9 +4585,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4612,9 +4603,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4630,9 +4621,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4648,9 +4639,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4666,9 +4657,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4684,9 +4675,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4702,9 +4693,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4720,9 +4711,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4738,9 +4729,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4756,9 +4747,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4774,9 +4765,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4792,9 +4783,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4810,9 +4801,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4828,9 +4819,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4846,9 +4837,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4864,9 +4855,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4882,9 +4873,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4900,9 +4891,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4918,9 +4909,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4936,9 +4927,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4954,9 +4945,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4972,9 +4963,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4990,9 +4981,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5008,9 +4999,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5026,9 +5017,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5044,9 +5035,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5062,9 +5053,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5080,9 +5071,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5098,9 +5089,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5116,9 +5107,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5134,9 +5125,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5152,9 +5143,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5170,9 +5161,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5188,9 +5179,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5206,9 +5197,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5224,9 +5215,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5242,9 +5233,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5260,8 +5251,10 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40">
+        <v>47088</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5276,7 +5269,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5292,7 +5285,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5308,7 +5301,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5324,7 +5317,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5340,21 +5333,37 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5371,10 +5380,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5397,28 +5406,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5431,7 +5440,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5460,7 +5469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5482,17 +5491,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5513,7 +5522,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5540,7 +5549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5592,7 +5601,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5618,7 +5627,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5644,7 +5653,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5696,7 +5705,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5722,7 +5731,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5742,7 +5751,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5762,7 +5771,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5782,7 +5791,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5803,7 +5812,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5824,7 +5833,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5845,7 +5854,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5866,7 +5875,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5887,7 +5896,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5908,7 +5917,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5929,7 +5938,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5950,7 +5959,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5971,7 +5980,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5992,7 +6001,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6013,7 +6022,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6034,7 +6043,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6055,7 +6064,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6076,7 +6085,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6097,7 +6106,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6118,7 +6127,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6139,7 +6148,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6160,7 +6169,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6181,7 +6190,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6202,7 +6211,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6211,7 +6220,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6220,7 +6229,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6229,7 +6238,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6238,7 +6247,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6247,7 +6256,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6256,7 +6265,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6265,7 +6274,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6274,7 +6283,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6283,7 +6292,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6292,7 +6301,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6301,7 +6310,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6310,7 +6319,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6319,7 +6328,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6328,7 +6337,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6337,7 +6346,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6346,7 +6355,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6355,7 +6364,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6364,7 +6373,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6373,7 +6382,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6382,7 +6391,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6391,7 +6400,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6400,7 +6409,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6409,7 +6418,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6418,7 +6427,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6427,7 +6436,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6436,7 +6445,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6445,7 +6454,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6454,7 +6463,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6463,7 +6472,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/MIRANDA, NICOLE MAY.xlsx
+++ b/REGULAR/CTO/MIRANDA, NICOLE MAY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C43597F-EFB4-46F9-A72A-39C05F44D4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,11 +215,23 @@
   <si>
     <t>UT(0-0-7)</t>
   </si>
+  <si>
+    <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>9/25-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/28,29/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -915,7 +926,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -958,7 +969,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1033,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1093,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1159,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1222,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1320,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1379,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1444,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1487,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1562,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1748,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1814,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1872,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1938,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1994,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2069,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2112,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2178,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2234,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2313,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2319,25 +2330,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2644,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2654,7 +2665,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2662,34 +2673,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K138"/>
+  <dimension ref="A2:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A49"/>
+      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2710,7 +2721,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2730,7 +2741,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2752,7 +2763,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2760,7 +2771,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2773,7 +2784,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2790,7 +2801,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2834,7 +2845,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.463999999999999</v>
+        <v>46.213999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2844,12 +2855,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59.5</v>
+        <v>57.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -2871,7 +2882,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -2891,7 +2902,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -2911,7 +2922,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -2931,7 +2942,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -2951,7 +2962,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -2971,7 +2982,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -2991,7 +3002,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>48</v>
       </c>
@@ -3009,7 +3020,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3029,7 +3040,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3049,7 +3060,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3069,7 +3080,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3089,7 +3100,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3109,7 +3120,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3129,7 +3140,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3149,7 +3160,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3169,7 +3180,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3189,7 +3200,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3209,7 +3220,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3229,7 +3240,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3253,7 +3264,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>47</v>
       </c>
@@ -3271,7 +3282,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3291,7 +3302,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3311,7 +3322,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -3331,7 +3342,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -3351,7 +3362,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -3371,7 +3382,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -3391,7 +3402,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44378</v>
       </c>
@@ -3411,7 +3422,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44409</v>
       </c>
@@ -3431,7 +3442,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44440</v>
       </c>
@@ -3451,7 +3462,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44470</v>
       </c>
@@ -3471,7 +3482,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44501</v>
       </c>
@@ -3497,7 +3508,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>51</v>
@@ -3519,7 +3530,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44531</v>
       </c>
@@ -3543,7 +3554,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>46</v>
       </c>
@@ -3561,7 +3572,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44562</v>
       </c>
@@ -3587,7 +3598,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44593</v>
       </c>
@@ -3607,7 +3618,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44621</v>
       </c>
@@ -3627,7 +3638,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44652</v>
       </c>
@@ -3647,7 +3658,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44682</v>
       </c>
@@ -3667,7 +3678,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="49"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44713</v>
       </c>
@@ -3689,7 +3700,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44743</v>
       </c>
@@ -3715,7 +3726,7 @@
         <v>44770</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44774</v>
       </c>
@@ -3741,7 +3752,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>57</v>
@@ -3761,7 +3772,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44805</v>
       </c>
@@ -3787,7 +3798,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>59</v>
@@ -3807,7 +3818,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="49"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44835</v>
       </c>
@@ -3831,7 +3842,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44866</v>
       </c>
@@ -3857,7 +3868,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44896</v>
       </c>
@@ -3883,7 +3894,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>55</v>
@@ -3903,7 +3914,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="49"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>56</v>
       </c>
@@ -3921,7 +3932,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="49"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44927</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44958</v>
       </c>
@@ -3971,7 +3982,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44986</v>
       </c>
@@ -3995,7 +4006,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>45017</v>
       </c>
@@ -4015,7 +4026,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>45047</v>
       </c>
@@ -4039,7 +4050,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>45078</v>
       </c>
@@ -4065,7 +4076,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45108</v>
       </c>
@@ -4091,7 +4102,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45139</v>
       </c>
@@ -4117,67 +4128,89 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45170</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H69" s="39"/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="39">
+        <v>5</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45200</v>
       </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45231</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="B71" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H71" s="39"/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="39">
+        <v>1</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="49">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45261</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>2</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13" t="str">
@@ -4187,11 +4220,13 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40">
-        <v>45292</v>
+      <c r="K72" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4207,9 +4242,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4225,9 +4260,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4243,9 +4278,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4261,9 +4296,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4279,9 +4314,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4297,9 +4332,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4315,9 +4350,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4333,9 +4368,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4351,9 +4386,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4369,9 +4404,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4387,9 +4422,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4405,9 +4440,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4423,9 +4458,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4441,9 +4476,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4459,9 +4494,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4477,9 +4512,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4495,9 +4530,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4513,9 +4548,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4531,9 +4566,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4549,9 +4584,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4567,9 +4602,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4585,9 +4620,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4603,9 +4638,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4621,9 +4656,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4639,9 +4674,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4657,9 +4692,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4675,9 +4710,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4693,9 +4728,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4711,9 +4746,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4729,9 +4764,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4747,9 +4782,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4765,9 +4800,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4783,9 +4818,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4801,9 +4836,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4819,9 +4854,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4837,9 +4872,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4855,9 +4890,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4873,9 +4908,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4891,9 +4926,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4909,9 +4944,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4927,9 +4962,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4945,9 +4980,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4963,9 +4998,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4981,9 +5016,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4999,9 +5034,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5017,9 +5052,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5035,9 +5070,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5053,9 +5088,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5071,9 +5106,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5089,9 +5124,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5107,9 +5142,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5125,9 +5160,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5143,9 +5178,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5161,9 +5196,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5179,9 +5214,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5197,9 +5232,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5215,9 +5250,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5233,9 +5268,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5251,9 +5286,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5269,8 +5304,10 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40">
+        <v>47088</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -5285,7 +5322,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5301,7 +5338,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5317,7 +5354,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5333,7 +5370,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5349,21 +5386,37 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="41"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="43"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="43"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="15"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="41"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="43"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5380,10 +5433,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5406,28 +5459,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5440,7 +5493,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5469,7 +5522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5491,17 +5544,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5522,7 +5575,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5549,7 +5602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5575,7 +5628,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5601,7 +5654,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5627,7 +5680,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5653,7 +5706,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5679,7 +5732,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5705,7 +5758,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5731,7 +5784,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5751,7 +5804,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5771,7 +5824,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5791,7 +5844,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5812,7 +5865,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5833,7 +5886,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5854,7 +5907,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5875,7 +5928,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5896,7 +5949,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5917,7 +5970,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5938,7 +5991,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5959,7 +6012,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5980,7 +6033,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6001,7 +6054,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6022,7 +6075,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6043,7 +6096,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6064,7 +6117,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6085,7 +6138,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6106,7 +6159,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6127,7 +6180,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6148,7 +6201,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6169,7 +6222,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6190,7 +6243,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6211,7 +6264,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6220,7 +6273,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6229,7 +6282,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6238,7 +6291,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6247,7 +6300,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6256,7 +6309,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6265,7 +6318,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6274,7 +6327,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6283,7 +6336,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6292,7 +6345,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6301,7 +6354,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6310,7 +6363,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6319,7 +6372,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6328,7 +6381,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6337,7 +6390,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6346,7 +6399,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6355,7 +6408,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6364,7 +6417,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6373,7 +6426,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6382,7 +6435,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6391,7 +6444,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6400,7 +6453,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6409,7 +6462,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6418,7 +6471,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6427,7 +6480,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6436,7 +6489,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6445,7 +6498,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6454,7 +6507,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6463,7 +6516,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6472,7 +6525,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/MIRANDA, NICOLE MAY.xlsx
+++ b/REGULAR/CTO/MIRANDA, NICOLE MAY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>12/28,29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
   </si>
 </sst>
 </file>
@@ -926,7 +932,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,7 +975,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1033,7 +1039,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1099,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,7 +1165,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1228,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1326,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1385,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1450,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1493,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1568,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1754,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1820,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1878,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1944,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +2000,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2075,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2118,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2184,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2240,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2336,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2677,12 +2683,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,7 +2851,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.213999999999999</v>
+        <v>47.447999999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2855,7 +2861,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>57.25</v>
+        <v>58.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4158,11 +4164,15 @@
       <c r="A70" s="40">
         <v>45200</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4201,15 +4211,13 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="39">
-        <v>2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
@@ -4220,35 +4228,43 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="K72" s="49"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="39"/>
+      <c r="A73" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="39">
+        <v>2</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B74" s="20"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13" t="str">
@@ -4261,8 +4277,8 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
-        <v>45323</v>
+      <c r="A75" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4280,7 +4296,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4298,7 +4314,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4316,7 +4332,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4334,7 +4350,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4352,7 +4368,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4370,7 +4386,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4388,7 +4404,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4406,7 +4422,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4424,7 +4440,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4442,7 +4458,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4460,7 +4476,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4478,7 +4494,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4496,7 +4512,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4514,7 +4530,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4532,7 +4548,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4550,7 +4566,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4568,7 +4584,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4586,7 +4602,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4604,7 +4620,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4622,7 +4638,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4640,7 +4656,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4658,7 +4674,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4676,7 +4692,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4694,7 +4710,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4712,7 +4728,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4730,7 +4746,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4748,7 +4764,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4766,7 +4782,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4784,7 +4800,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4802,7 +4818,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4820,7 +4836,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4838,7 +4854,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4856,7 +4872,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4874,7 +4890,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4892,7 +4908,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4910,7 +4926,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4928,7 +4944,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4946,7 +4962,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4964,7 +4980,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4982,7 +4998,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5000,7 +5016,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5018,7 +5034,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5036,7 +5052,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5054,7 +5070,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5072,7 +5088,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5090,7 +5106,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5108,7 +5124,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5126,7 +5142,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5144,7 +5160,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5162,7 +5178,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5180,7 +5196,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5198,7 +5214,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5216,7 +5232,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5234,7 +5250,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5252,7 +5268,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5270,7 +5286,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5288,7 +5304,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5306,7 +5322,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5323,7 +5339,9 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="40">
+        <v>47058</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -5339,7 +5357,9 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
+      <c r="A135" s="40">
+        <v>47088</v>
+      </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
@@ -5403,20 +5423,52 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="41"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="43"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="43"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="41"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="43"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5528,11 +5580,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/MIRANDA, NICOLE MAY.xlsx
+++ b/REGULAR/CTO/MIRANDA, NICOLE MAY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -232,6 +232,21 @@
   </si>
   <si>
     <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>5/17,19,23,26/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-53)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-18)</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2351,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2683,12 +2698,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K141"/>
+  <dimension ref="A2:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,7 +2866,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.447999999999993</v>
+        <v>42.301000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3963,42 +3978,38 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="13">
-        <v>1.25</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C62" s="13"/>
       <c r="D62" s="39">
-        <v>1</v>
+        <v>3.7000000000000019E-2</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="49">
-        <v>44970</v>
-      </c>
+      <c r="K62" s="49"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
-      <c r="D63" s="39"/>
+      <c r="D63" s="39">
+        <v>1</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
@@ -4009,32 +4020,34 @@
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="49">
-        <v>45014</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D64" s="39"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39">
+        <v>1</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="49">
+        <v>44965</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>57</v>
@@ -4053,48 +4066,38 @@
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="49">
-        <v>45076</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" s="13">
-        <v>1.25</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C66" s="13"/>
       <c r="D66" s="39">
-        <v>1</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="49">
-        <v>45104</v>
-      </c>
+      <c r="K66" s="49"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B67" s="20"/>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39">
-        <v>1</v>
-      </c>
+      <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -4104,16 +4107,14 @@
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="49">
-        <v>45118</v>
-      </c>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
@@ -4125,53 +4126,47 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H68" s="39">
-        <v>1</v>
-      </c>
+      <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="49">
-        <v>45152</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D69" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="39">
+        <v>4</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H69" s="39">
-        <v>5</v>
-      </c>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20" t="s">
-        <v>61</v>
+      <c r="K69" s="49" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
       <c r="D70" s="39">
-        <v>6.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
@@ -4182,94 +4177,106 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="49">
+        <v>45104</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45231</v>
+        <v>45108</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>1</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H71" s="39">
-        <v>1</v>
-      </c>
+      <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="49">
-        <v>45233</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>45139</v>
+      </c>
       <c r="B72" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="39">
-        <v>4.0000000000000001E-3</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H72" s="39"/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H72" s="39">
+        <v>1</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="49"/>
+      <c r="K72" s="49">
+        <v>45152</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39">
-        <v>2</v>
-      </c>
+      <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H73" s="39"/>
+      <c r="H73" s="39">
+        <v>5</v>
+      </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>45200</v>
+      </c>
       <c r="B74" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
@@ -4277,30 +4284,40 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="A75" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="39"/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="39">
+        <v>1</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="49">
+        <v>45233</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B76" s="20"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -4310,33 +4327,43 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="49"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="39">
+        <v>2</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B78" s="20"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="39"/>
+      <c r="D78" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13" t="str">
@@ -4349,8 +4376,8 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40">
-        <v>45383</v>
+      <c r="A79" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4368,7 +4395,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4386,7 +4413,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4404,7 +4431,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4422,7 +4449,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4440,7 +4467,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4458,7 +4485,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4476,7 +4503,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4494,7 +4521,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4512,7 +4539,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4530,7 +4557,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4548,7 +4575,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4566,7 +4593,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4584,7 +4611,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4602,7 +4629,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4620,7 +4647,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4638,7 +4665,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4656,7 +4683,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4674,7 +4701,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4692,7 +4719,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4710,7 +4737,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4728,7 +4755,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4746,7 +4773,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4764,7 +4791,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4782,7 +4809,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4800,7 +4827,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46143</v>
+        <v>46023</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4818,7 +4845,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46174</v>
+        <v>46054</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4836,7 +4863,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46204</v>
+        <v>46082</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4854,7 +4881,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46235</v>
+        <v>46113</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4872,7 +4899,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46266</v>
+        <v>46143</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4890,7 +4917,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46296</v>
+        <v>46174</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4908,7 +4935,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46327</v>
+        <v>46204</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4926,7 +4953,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46357</v>
+        <v>46235</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4944,7 +4971,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46388</v>
+        <v>46266</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4962,7 +4989,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46419</v>
+        <v>46296</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4980,7 +5007,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46447</v>
+        <v>46327</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4998,7 +5025,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46478</v>
+        <v>46357</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5016,7 +5043,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46508</v>
+        <v>46388</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5034,7 +5061,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46539</v>
+        <v>46419</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5052,7 +5079,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46569</v>
+        <v>46447</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5070,7 +5097,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46600</v>
+        <v>46478</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5088,7 +5115,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46631</v>
+        <v>46508</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5106,7 +5133,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46661</v>
+        <v>46539</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5124,7 +5151,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46692</v>
+        <v>46569</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5142,7 +5169,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46722</v>
+        <v>46600</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5160,7 +5187,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46753</v>
+        <v>46631</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5178,7 +5205,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46784</v>
+        <v>46661</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5196,7 +5223,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46813</v>
+        <v>46692</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5214,7 +5241,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46844</v>
+        <v>46722</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5232,7 +5259,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46874</v>
+        <v>46753</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5250,7 +5277,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46905</v>
+        <v>46784</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5268,7 +5295,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46935</v>
+        <v>46813</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5286,7 +5313,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46966</v>
+        <v>46844</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5304,7 +5331,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46997</v>
+        <v>46874</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5322,7 +5349,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>47027</v>
+        <v>46905</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5340,7 +5367,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>47058</v>
+        <v>46935</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5358,7 +5385,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>47088</v>
+        <v>46966</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5375,7 +5402,9 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
+      <c r="A136" s="40">
+        <v>46997</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -5391,7 +5420,9 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
+      <c r="A137" s="40">
+        <v>47027</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -5407,7 +5438,9 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
+      <c r="A138" s="40">
+        <v>47058</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -5423,7 +5456,9 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+      <c r="A139" s="40">
+        <v>47088</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -5455,20 +5490,84 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="41"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="43"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="43"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="15"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="41"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="43"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5580,11 +5679,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.0000000000000001E-3</v>
+        <v>3.7000000000000019E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
